--- a/_Notes/events.xlsx
+++ b/_Notes/events.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="116">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rulesText</t>
   </si>
   <si>
     <t xml:space="preserve">Manager Mayhem</t>
@@ -91,8 +94,13 @@
 					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; Each team can have 1 participant.&lt;/li&gt;&lt;br&gt;
 					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; Participants are NOT allowed to participate in any other Event.&lt;/li&gt;&lt;br&gt;
 					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; Participants are required to carry their own laptop.&lt;/li&gt;&lt;br&gt;
-					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; Participants are required to carry a pair of Extra Clothes and Necessary Bathing Items.&lt;/li&gt;&lt;br&gt;
 					  		&lt;/ul&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each team can have 1 participant.
+Participants are NOT allowed to participate in any other Event.
+Participants are required to carry their own laptop.
+</t>
   </si>
   <si>
     <t xml:space="preserve">Release Edition</t>
@@ -133,6 +141,14 @@
 									&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; The decision of the judges will be considered as the final decision.&lt;/li&gt;
 									&lt;br&gt;
 					  		&lt;/ul&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each team can have a maximum of 2 members.
+Teams will be given 10-15 mins to discuss on the product before pitching the idea.
+Any changes in the event details would be informed on spot.
+Each team must stick to the time limit.
+The decision of the judges will be considered as the final decision.
+</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -175,6 +191,16 @@
 					  		&lt;/ul&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">2 members per team.
+Maximum of 2 teams per college.
+Systems will be provided.
+Internet usage is strictly prohibited.
+Participants can code in any of the following languages: C, C++, Java or Python.
+Time taken to solve each problem will be noted.
+The lines of code and logic used will be noted.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verbal Wars</t>
   </si>
   <si>
@@ -223,6 +249,18 @@
 					  		&lt;/ul&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Maximum of 2 teams per college.
+No. of members per team: 2
+Topics of discussion will be given on the spot.
+Teams will be given 5 mins to discuss on the topic.
+Any variation in the proceedings will be informed on the spot.
+The speaker will be allotting time and turns to put forth points by a team.
+Students are not supposed to use slangs in any context.
+Students are advised to hold on to the time limit given by the speaker.
+The decision of the judges will be considered as the final decision.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Freeze Frame</t>
   </si>
   <si>
@@ -268,6 +306,19 @@
 									&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; Photographs should be submitted within the time allotted (3 pm to 3: 30 pm)&lt;/li&gt;
 									&lt;br&gt;
 					  		&lt;/ul&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only one participates from one college.
+Picture can be taken from Any device or iPhone, you can also use DSLR but picture format must be RAW.
+Picture should be captured only within the university premises.
+Editing is allowed only with LIGHTROOM. (DETAILS will be checked of file).
+Caption is mandatory. (NOTE - CAPTION &amp; TOPIC are different, caption will describe the story of the picture and picture must be taken based on TOPIC).
+One participates can submit only one picture for contest with ORIGINAL AND EDITIED FILES.
+Topic and time limit will be introduced at the time of INAUGRATION CEREMONY.
+The picture submission folder name must your first name and then college name, ex: THOMASCHRIST and inside of that folder create artist_detail.txt and add details (NAME, COURSE AND SEMESTER and COLLEGE NAME) of photographer.
+If any image is downloaded or copied from any other source, that participate will be eliminated immediately.
+Photographs should be submitted within the time allotted (3 pm to 3: 30 pm)
+</t>
   </si>
   <si>
     <t xml:space="preserve">Click - Bait</t>
@@ -304,6 +355,18 @@
 					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; The playback format of the video must be in mp4.&lt;/li&gt;&lt;br&gt;
 					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; The video must be submitted to the event coordinators in a usb drive on the 2nd day between 1.30pm and 2pm.&lt;/li&gt;&lt;br&gt;
 					  		&lt;/ul&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum 2 participants in a team.
+Maximum 2 teams per college.
+The topic for the ad will be given to the participants in the respective venue. 
+The video must be shot within the campus premise of Christ University. 
+Participants must bring their own camera, laptop, usb drive or any other gadgets necessary for the ad making. 
+The video shall not contain any vulgar remark or act.
+The duration of the video should be minimum  30 seconds and maximum 1 minute including all titles and credits. 
+The playback format of the video must be in mp4.
+The video must be submitted to the event coordinators in a usb drive on the 2nd day between 1.30pm and 2pm.
+</t>
   </si>
   <si>
     <t xml:space="preserve">Game - O - Tronix</t>
@@ -373,6 +436,16 @@
 					  		&lt;/ul&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">The above mentioned games will be played as 3 different events.
+All three events will start simultaneously.
+Players are not allowed to switch between game events.
+Players can only participate in one Event (CS, FIFA or Blur). Therefore a college can have maximum of 8 participants (1 for Fifa, 2 for Blur, 5 for CS).
+Participants are suggested bring their own peripherals (mouse, earphone, controller etc.). If the participant is unable to bring his own peripherals, generic peripherals will be provided.
+If a participant damages any peripherals provided, he/she will be held responsible.
+Raging is not encouraged. Raging unnecessarily can get participants disqualified.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gold Rush</t>
   </si>
   <si>
@@ -406,6 +479,13 @@
 					  		&lt;/ul&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Maximum of 2 teams per college.
+Team of 3 players. 2 players are mandatory for each round.
+Electronic devices are not allowed.
+Violation of general code of conduct will lead to disqualification of participants from the event.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">EVENT X</t>
   </si>
   <si>
@@ -433,6 +513,11 @@
 					  		&lt;/ul&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">2 participants per college.
+That’s All We can Say!
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Question Mark</t>
   </si>
   <si>
@@ -457,10 +542,18 @@
 							&lt;/p&gt;
 							&lt;h4&gt;Rules:&lt;/h4&gt;
 					  		&lt;p&gt;&lt;ul&gt;
+					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; Only Team entries are eligible.&lt;/li&gt;&lt;br&gt;
 					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; Maximum 2 teams per college.&lt;/li&gt;&lt;br&gt;
-									&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; members per team.&lt;/li&gt;&lt;br&gt;
 									&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; Participants will not be allowed to use mobile or other electronic gadgets.&lt;/li&gt;&lt;br&gt;
+									&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; The Questions will be in the form of multiple choice, true/false statement, specific-answer questions etc.&lt;/li&gt;&lt;br&gt;
 					  		&lt;/ul&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only Team entries are eligible.
+Maximum 2 teams per college.
+Participants will not be allowed to use mobile or other electronic gadgets.
+The Questions will be in the form of multiple choice, true/false statement, specific-answer questions etc.
+</t>
   </si>
   <si>
     <t xml:space="preserve">Intent Not Found</t>
@@ -492,6 +585,13 @@
 					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; Internet will be provided.&lt;/li&gt;&lt;br&gt;
 					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; The decision made by the judges will be final.&lt;/li&gt;&lt;br&gt;
 					  		&lt;/ul&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum two members in a team (No individual participation).
+Participants should carry a laptop with necessary software.
+Internet will be provided.
+The decision made by the judges will be final.
+</t>
   </si>
   <si>
     <t xml:space="preserve">The Grand Hackathon</t>
@@ -524,6 +624,14 @@
 									&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; Pre-built projects won’t be entertained.&lt;/li&gt;&lt;br&gt;
 									&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; Participates of this event won’t be able to participate in any other event.&lt;/li&gt;&lt;br&gt;
 					  		&lt;/ul&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only one team per college.
+Max of 3 members in a team.
+Participants are required to bring their own laptops and necessary accessories.
+Pre-built projects won’t be entertained.
+Participates of this event won’t be able to participate in any other event.
+</t>
   </si>
 </sst>
 </file>
@@ -630,25 +738,26 @@
   </sheetPr>
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D9" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="201.229591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="91.9744897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.0816326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.0612244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.3010204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="72.1734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="26.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.89795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="257.025510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="117.352040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5969387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3775510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="91.9744897959184"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="176.030612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="236.326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="33.2959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,470 +797,509 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="110.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>7019922101</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="189" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="320" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>9741666811</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="320" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="156" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>8861847120</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="278" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="484.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>9979782005</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="298.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="613.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>8769108122</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="176.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="430.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>9902771821</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="418.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="818.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>8123107440</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="143.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="154.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>7204365350</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="110.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="110.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>8904794556</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="110.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="132.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>9591779850</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="121.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="121.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>9656178134</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="132.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="152.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>9741308843</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/_Notes/events.xlsx
+++ b/_Notes/events.xlsx
@@ -738,26 +738,26 @@
   </sheetPr>
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.89795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="257.025510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="117.352040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5969387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3775510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="91.9744897959184"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="176.030612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="236.326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="33.2959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="328.301020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="149.928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8367346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2602040816327"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="117.352040816327"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="224.80612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="302.020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="42.4795918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,7 +1015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="430.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="198.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>59</v>
       </c>

--- a/_Notes/events.xlsx
+++ b/_Notes/events.xlsx
@@ -543,6 +543,7 @@
 							&lt;h4&gt;Rules:&lt;/h4&gt;
 					  		&lt;p&gt;&lt;ul&gt;
 					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; Only Team entries are eligible.&lt;/li&gt;&lt;br&gt;
+					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; A Team should have 2 members only.&lt;/li&gt;&lt;br&gt;
 					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; Maximum 2 teams per college.&lt;/li&gt;&lt;br&gt;
 									&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; Participants will not be allowed to use mobile or other electronic gadgets.&lt;/li&gt;&lt;br&gt;
 									&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; The Questions will be in the form of multiple choice, true/false statement, specific-answer questions etc.&lt;/li&gt;&lt;br&gt;
@@ -550,6 +551,7 @@
   </si>
   <si>
     <t xml:space="preserve">Only Team entries are eligible.
+A Team should have 2 members only.
 Maximum 2 teams per college.
 Participants will not be allowed to use mobile or other electronic gadgets.
 The Questions will be in the form of multiple choice, true/false statement, specific-answer questions etc.
@@ -738,26 +740,26 @@
   </sheetPr>
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L9" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="328.301020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="149.928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8367346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2602040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6989795918367"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="117.352040816327"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="224.80612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="302.020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="42.4795918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.3163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3367346938775"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="169.551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.3367346938775"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.780612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="132.65306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="254.142857142857"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.07142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="47.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/_Notes/events.xlsx
+++ b/_Notes/events.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">$2y$10$IHCxK8P/A3UwO3qhlU9hEuP1oxHFr4hcj94bRpdPzRy/uxIuDIAJ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 1:&lt;br&gt;11:00AM-1:00PM,&lt;br&gt;2:00PM-5:00PM&lt;hr&gt;Day 2:&lt;br&gt;9:00AM-1:00PM,&lt;br&gt;2:00PM-3:30PM&lt;br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">false</t>
@@ -115,6 +118,9 @@
     <t xml:space="preserve">$2y$10$J04YlBu/yIw6e4RSg71JLeg9djJpZyp9pusZaFylz47rRi3pvjij.</t>
   </si>
   <si>
+    <t xml:space="preserve">Day 1:&lt;br&gt;12:00PM-1:00PM&lt;hr&gt;Day 2:&lt;br&gt;11:00AM-1:00PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">true</t>
   </si>
   <si>
@@ -167,6 +173,9 @@
   </si>
   <si>
     <t xml:space="preserve">$2y$10$a2Tx7A9jkW7GmGA27bCSO.pe4dc8ZeeulPT4ZkW7tVTAbivtrr066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 1:&lt;br&gt;2:00PM-3:00PM,&lt;br&gt;4:00PM-7:00PM&lt;hr&gt;Day 2:&lt;br&gt;11:00AM-1:00PM</t>
   </si>
   <si>
     <t xml:space="preserve">Himanshu</t>
@@ -213,6 +222,9 @@
     <t xml:space="preserve">$2y$10$IiKTqltRlnDs.IP/x4CCAe36vVfiTLZypY1Pzd5dr87ot/MTNZwqK</t>
   </si>
   <si>
+    <t xml:space="preserve">Day 1:&lt;br&gt;11:00AM-1:00PM,&lt;br&gt;2:00PM-5:00PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">3 - 6</t>
   </si>
   <si>
@@ -271,6 +283,9 @@
   </si>
   <si>
     <t xml:space="preserve">$2y$10$LLHRgwC2IgtiXAF..kKXr.VcQQMsALQDVcXS05WVCfl6GwdpDLtim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 2:&lt;br&gt;9:00AM-1:00PM,&lt;br&gt;2:00PM-3:00PM&lt;br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Thomas</t>
@@ -331,6 +346,9 @@
   </si>
   <si>
     <t xml:space="preserve">$2y$10$JakLpBDTHNobDxGLoH3jVundsj1e1Xkj2j4BCQbnd14LEetllGYSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 1:&lt;br&gt;11:00AM-1:00PM,&lt;br&gt;2:00PM-5:00PM&lt;hr&gt;Day 2:&lt;br&gt;9:00AM-1:00PM,&lt;br&gt;2:00PM-3:00PM&lt;br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Tony</t>
@@ -383,6 +401,9 @@
   </si>
   <si>
     <t xml:space="preserve">$2y$10$kDWPauCCKJYHdmk59FK5LOnKUsUZXmDiGROGb2jXk9qEdAUcZoP5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 1:&lt;br&gt;11:00AM-1:00PM,&lt;br&gt;2:00PM-7:00PM&lt;hr&gt;Day 2:&lt;br&gt;9:00AM-1:00PM</t>
   </si>
   <si>
     <t xml:space="preserve">CS: 5
@@ -643,7 +664,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -664,6 +685,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -708,13 +734,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -740,26 +770,25 @@
   </sheetPr>
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L9" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.3163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3367346938775"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="169.551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.3367346938775"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.780612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="132.65306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="254.142857142857"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.07142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="47.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="191.510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.5663265306122"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1581632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.6581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.0969387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.5"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="149.928571428571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="287.260204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.73979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,488 +849,488 @@
         <v>17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>7019922101</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="320" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="549.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>9741666811</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="592.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="320" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>8861847120</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="484.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="893.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>9979782005</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="613.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="1938.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>58</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>8769108122</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="198.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="1206.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>16</v>
+        <v>67</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>9902771821</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="818.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="1173.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>16</v>
+        <v>77</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>8123107440</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="154.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>7204365350</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="110.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>8904794556</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="132.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>9591779850</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="121.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>9656178134</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="152.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>9741308843</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/_Notes/events.xlsx
+++ b/_Notes/events.xlsx
@@ -528,7 +528,8 @@
 							&lt;/p&gt;
 							&lt;h4&gt;Rules:&lt;/h4&gt;
 					  		&lt;p&gt;&lt;ul&gt;
-					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; 2 participants per college.&lt;/li&gt;
+					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; 2 participants per college.&lt;/li&gt;&lt;br&gt;
+					  				&lt;li&gt;&lt;i class="fa fa-check" style="color: rgb(219, 82, 82);"&gt;&lt;/i&gt; &amp;nbsp; Participants cannot participate in any other event.&lt;/li&gt;
 					  				&lt;br&gt;
 									&lt;li&gt;&lt;i style="color: rgb(219, 82, 82);"&gt;That’s All We can Say!&lt;/i&gt;&lt;/li&gt;
 					  		&lt;/ul&gt;&lt;/p&gt;</t>
@@ -664,7 +665,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -685,11 +686,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -734,17 +730,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -770,25 +762,26 @@
   </sheetPr>
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R9" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.1173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="191.510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.5663265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1581632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.6581632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.0969387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.5"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="149.928571428571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="287.260204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.73979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.8163265306123"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.4387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="216.525510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.0561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.4591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="169.551020408163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="324.877551020408"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.89795918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,11 +1162,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="110.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="121.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -1296,7 +1289,7 @@
       <c r="A13" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="0" t="s">
